--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,114 +43,111 @@
     <t>evil</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>addicted</t>
   </si>
   <si>
     <t>insane</t>
   </si>
   <si>
-    <t>boring</t>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>black</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -166,10 +163,19 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>interesting</t>
@@ -178,7 +184,7 @@
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>important</t>
@@ -187,112 +193,97 @@
     <t>happy</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>honestly</t>
+    <t>worth</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>2020</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
+    <t>whole</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
     <t>many</t>
   </si>
   <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>right</t>
   </si>
   <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>real</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>opening</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>opening</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
     <t>twitter</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>watching</t>
   </si>
   <si>
-    <t>documentary</t>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -653,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,10 +652,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -743,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -775,10 +766,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -793,16 +784,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -814,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -825,10 +816,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -843,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -872,13 +863,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -890,31 +881,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6">
+        <v>0.88</v>
+      </c>
+      <c r="L6">
+        <v>44</v>
+      </c>
+      <c r="M6">
+        <v>44</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>6</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6">
-        <v>0.9</v>
-      </c>
-      <c r="L6">
-        <v>27</v>
-      </c>
-      <c r="M6">
-        <v>27</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -943,16 +934,16 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>0.86</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -964,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -972,13 +963,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9333333333333333</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -990,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>0.7192982456140351</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1014,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1022,13 +1013,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9242424242424242</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C9">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1040,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>0.7066666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1064,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1072,13 +1063,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1090,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>0.6551724137931034</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1114,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1122,13 +1113,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1140,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11">
-        <v>0.6166666666666667</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1164,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1172,13 +1163,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1193,16 +1184,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K12">
-        <v>0.6</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="M12">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1214,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1222,13 +1213,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8125</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1240,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13">
-        <v>0.5789473684210527</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L13">
         <v>11</v>
@@ -1264,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1272,13 +1263,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1290,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K14">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1314,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1322,38 +1313,38 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15">
+        <v>0.6</v>
+      </c>
+      <c r="L15">
         <v>6</v>
       </c>
-      <c r="D15">
+      <c r="M15">
         <v>6</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L15">
-        <v>15</v>
-      </c>
-      <c r="M15">
-        <v>15</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1364,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1372,13 +1363,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7368421052631579</v>
+        <v>0.725</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1390,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K16">
-        <v>0.5384615384615384</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L16">
         <v>7</v>
@@ -1414,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1422,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7272727272727273</v>
+        <v>0.7</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1443,16 +1434,16 @@
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K17">
-        <v>0.5384615384615384</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1464,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1472,13 +1463,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.725</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1490,19 +1481,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K18">
-        <v>0.5</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1514,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1522,13 +1513,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1540,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L19">
         <v>6</v>
@@ -1564,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1572,13 +1563,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1590,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20">
-        <v>0.4545454545454545</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1614,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1622,13 +1613,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6363636363636364</v>
+        <v>0.625</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1640,19 +1631,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L21">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M21">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1664,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1693,16 +1684,16 @@
         <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K22">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1714,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1722,13 +1713,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6014492753623188</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C23">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1740,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K23">
-        <v>0.375</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1764,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1772,13 +1763,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5882352941176471</v>
+        <v>0.6</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1790,19 +1781,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K24">
-        <v>0.3333333333333333</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L24">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1814,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1843,16 +1834,16 @@
         <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K25">
-        <v>0.2711864406779661</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1864,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1872,13 +1863,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.574468085106383</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1890,19 +1881,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K26">
-        <v>0.2513661202185792</v>
+        <v>0.2668488160291439</v>
       </c>
       <c r="L26">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="M26">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1914,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>822</v>
+        <v>805</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1922,13 +1913,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5714285714285714</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1940,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="L27">
         <v>6</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27">
-        <v>0.1951219512195122</v>
-      </c>
-      <c r="L27">
-        <v>8</v>
-      </c>
       <c r="M27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1964,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1972,13 +1963,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5652173913043478</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1990,19 +1981,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K28">
-        <v>0.1851851851851852</v>
+        <v>0.25</v>
       </c>
       <c r="L28">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M28">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2014,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2022,13 +2013,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5625</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2040,19 +2031,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K29">
-        <v>0.1714285714285714</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2064,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2075,10 +2066,10 @@
         <v>0.5384615384615384</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2090,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K30">
-        <v>0.1692307692307692</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L30">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2114,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2122,13 +2113,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5142857142857142</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2140,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K31">
         <v>0.1690140845070423</v>
@@ -2175,10 +2166,10 @@
         <v>0.5</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2190,19 +2181,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K32">
-        <v>0.1639344262295082</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2214,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2222,13 +2213,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4615384615384616</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2240,19 +2231,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K33">
-        <v>0.1481481481481481</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2264,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2293,16 +2284,16 @@
         <v>16</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K34">
-        <v>0.1463414634146341</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L34">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2314,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2322,13 +2313,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2340,19 +2331,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K35">
-        <v>0.136986301369863</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2364,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2372,7 +2363,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -2390,19 +2381,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K36">
-        <v>0.1304347826086956</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="L36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2414,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2422,38 +2413,38 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3809523809523809</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>27</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K37">
+        <v>0.09411764705882353</v>
+      </c>
+      <c r="L37">
         <v>8</v>
       </c>
-      <c r="D37">
+      <c r="M37">
         <v>8</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>13</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K37">
-        <v>0.1294117647058824</v>
-      </c>
-      <c r="L37">
-        <v>11</v>
-      </c>
-      <c r="M37">
-        <v>11</v>
-      </c>
       <c r="N37">
         <v>1</v>
       </c>
@@ -2464,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2472,13 +2463,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2490,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K38">
-        <v>0.1263157894736842</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="L38">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M38">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2514,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2522,13 +2513,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3214285714285715</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2540,19 +2531,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K39">
-        <v>0.08955223880597014</v>
+        <v>0.05740740740740741</v>
       </c>
       <c r="L39">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2564,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>61</v>
+        <v>509</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2572,87 +2563,63 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1538461538461539</v>
+        <v>0.03691275167785235</v>
       </c>
       <c r="C40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40">
         <v>12</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="J40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K40">
+        <v>0.04240282685512368</v>
+      </c>
+      <c r="L40">
+        <v>12</v>
+      </c>
+      <c r="M40">
+        <v>12</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K40">
-        <v>0.06569343065693431</v>
-      </c>
-      <c r="L40">
-        <v>9</v>
-      </c>
-      <c r="M40">
-        <v>9</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.0436241610738255</v>
-      </c>
-      <c r="C41">
-        <v>13</v>
-      </c>
-      <c r="D41">
-        <v>14</v>
-      </c>
-      <c r="E41">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F41">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>285</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="K41">
-        <v>0.04629629629629629</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M41">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2664,21 +2631,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>515</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K42">
-        <v>0.04398826979472141</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2690,21 +2657,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K43">
-        <v>0.03886925795053003</v>
+        <v>0.02560819462227913</v>
       </c>
       <c r="L43">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2716,21 +2683,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>272</v>
+        <v>761</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K44">
-        <v>0.03246753246753246</v>
+        <v>0.02560240963855422</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2742,21 +2709,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>596</v>
+        <v>647</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K45">
-        <v>0.03162650602409638</v>
+        <v>0.02361751152073733</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2768,21 +2735,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>643</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K46">
-        <v>0.02857142857142857</v>
+        <v>0.0211038961038961</v>
       </c>
       <c r="L46">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2794,59 +2761,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K47">
-        <v>0.02649769585253456</v>
-      </c>
-      <c r="L47">
-        <v>46</v>
-      </c>
-      <c r="M47">
-        <v>46</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K48">
-        <v>0.02560819462227913</v>
-      </c>
-      <c r="L48">
-        <v>20</v>
-      </c>
-      <c r="M48">
-        <v>20</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>761</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
